--- a/寒蝉-FCU（HanChan-FCU） V1.2.3配件清单.xlsx
+++ b/寒蝉-FCU（HanChan-FCU） V1.2.3配件清单.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CBF12F-41E3-479C-92BB-9D58114763FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B450B13-BEC5-42F6-B519-1C953CA8070F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21780" yWindow="5760" windowWidth="12330" windowHeight="10635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="配件清单" sheetId="3" r:id="rId1"/>
@@ -543,6 +543,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -554,30 +578,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -886,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -900,31 +900,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
@@ -947,7 +947,7 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="20" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -962,7 +962,7 @@
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
@@ -975,7 +975,7 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
@@ -988,7 +988,7 @@
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1003,7 +1003,7 @@
       <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="5" t="s">
         <v>59</v>
       </c>
@@ -1016,7 +1016,7 @@
       <c r="A10" s="5">
         <v>6</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="5" t="s">
         <v>16</v>
       </c>
@@ -1029,7 +1029,7 @@
       <c r="A11" s="5">
         <v>7</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="5" t="s">
         <v>17</v>
       </c>
@@ -1042,7 +1042,7 @@
       <c r="A12" s="5">
         <v>8</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="5" t="s">
         <v>18</v>
       </c>
@@ -1055,7 +1055,7 @@
       <c r="A13" s="5">
         <v>9</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1070,7 +1070,7 @@
       <c r="A14" s="5">
         <v>10</v>
       </c>
-      <c r="B14" s="13"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="5" t="s">
         <v>50</v>
       </c>
@@ -1083,7 +1083,7 @@
       <c r="A15" s="5">
         <v>11</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="5" t="s">
         <v>49</v>
       </c>
@@ -1096,7 +1096,7 @@
       <c r="A16" s="5">
         <v>12</v>
       </c>
-      <c r="B16" s="13"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="5" t="s">
         <v>9</v>
       </c>
@@ -1111,7 +1111,7 @@
       <c r="A17" s="5">
         <v>13</v>
       </c>
-      <c r="B17" s="13"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="5" t="s">
         <v>6</v>
       </c>
@@ -1124,7 +1124,7 @@
       <c r="A18" s="5">
         <v>14</v>
       </c>
-      <c r="B18" s="13"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="5" t="s">
         <v>7</v>
       </c>
@@ -1137,7 +1137,7 @@
       <c r="A19" s="5">
         <v>15</v>
       </c>
-      <c r="B19" s="13"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="5" t="s">
         <v>22</v>
       </c>
@@ -1152,7 +1152,7 @@
       <c r="A20" s="5">
         <v>16</v>
       </c>
-      <c r="B20" s="13"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="5" t="s">
         <v>23</v>
       </c>
@@ -1167,7 +1167,7 @@
       <c r="A21" s="5">
         <v>17</v>
       </c>
-      <c r="B21" s="13"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="5" t="s">
         <v>51</v>
       </c>
@@ -1180,7 +1180,7 @@
       <c r="A22" s="5">
         <v>18</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="21" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -1195,7 +1195,7 @@
       <c r="A23" s="5">
         <v>19</v>
       </c>
-      <c r="B23" s="13"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="5" t="s">
         <v>34</v>
       </c>
@@ -1362,7 +1362,7 @@
       <c r="A34" s="5">
         <v>30</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="22" t="s">
         <v>55</v>
       </c>
       <c r="C34" s="6" t="s">
@@ -1379,7 +1379,7 @@
       <c r="A35" s="5">
         <v>31</v>
       </c>
-      <c r="B35" s="15"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="6" t="s">
         <v>57</v>
       </c>
@@ -1390,22 +1390,21 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B34:B35"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B13:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B34:B35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C25" r:id="rId1" display="https://item.taobao.com/item.htm?id=572678860007&amp;_u=r41dfihb1b2" xr:uid="{BF18375A-348B-470E-9439-F458BFCB6E15}"/>
-    <hyperlink ref="C27" r:id="rId2" display="https://item.taobao.com/item.htm?id=600216770759&amp;_u=r41dfih1381" xr:uid="{DD01A867-7FC2-4355-9645-C7E966C5BA0A}"/>
+    <hyperlink ref="C27" r:id="rId1" display="https://item.taobao.com/item.htm?id=600216770759&amp;_u=r41dfih1381" xr:uid="{DD01A867-7FC2-4355-9645-C7E966C5BA0A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/寒蝉-FCU（HanChan-FCU） V1.2.3配件清单.xlsx
+++ b/寒蝉-FCU（HanChan-FCU） V1.2.3配件清单.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B450B13-BEC5-42F6-B519-1C953CA8070F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711D9FE1-AB50-4769-9E53-15FC298BB261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,10 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>航向按钮 圆形版本</t>
   </si>
   <si>
@@ -262,6 +258,14 @@
   </si>
   <si>
     <t>高度-面板链接件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV18z421q7wh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>几十</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -269,7 +273,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,14 +324,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="22"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -360,19 +356,31 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -387,7 +395,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -432,47 +440,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -512,7 +479,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -521,7 +488,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -530,54 +497,42 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -884,85 +839,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.75" customWidth="1"/>
-    <col min="2" max="2" width="30.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21" style="1" customWidth="1"/>
     <col min="3" max="3" width="35.5" customWidth="1"/>
     <col min="4" max="4" width="6.625" customWidth="1"/>
-    <col min="5" max="5" width="21.375" customWidth="1"/>
+    <col min="5" max="5" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>40</v>
+    <row r="1" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
     </row>
-    <row r="2" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-    </row>
-    <row r="3" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-    </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5">
+        <v>6</v>
+      </c>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>10</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B5" s="17"/>
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="5">
         <v>6</v>
       </c>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
-        <v>2</v>
-      </c>
-      <c r="B6" s="20"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="17"/>
       <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
@@ -971,52 +932,52 @@
       </c>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
-        <v>3</v>
-      </c>
-      <c r="B7" s="20"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="C7" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="5">
-        <v>4</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="5">
-        <v>5</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="D9" s="5">
         <v>1</v>
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
-        <v>6</v>
-      </c>
-      <c r="B10" s="21"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="12"/>
       <c r="C10" s="5" t="s">
         <v>16</v>
       </c>
@@ -1025,11 +986,11 @@
       </c>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
-        <v>7</v>
-      </c>
-      <c r="B11" s="21"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="12"/>
       <c r="C11" s="5" t="s">
         <v>17</v>
       </c>
@@ -1038,373 +999,360 @@
       </c>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
+        <v>9</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5">
+        <v>4</v>
+      </c>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="5">
+        <v>10</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="5">
+        <v>3</v>
+      </c>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="5">
+        <v>11</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="5">
+        <v>12</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="5">
-        <v>1</v>
-      </c>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5">
-        <v>9</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="5">
-        <v>4</v>
-      </c>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="5">
-        <v>10</v>
-      </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="5">
-        <v>3</v>
-      </c>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="5">
-        <v>11</v>
-      </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="D15" s="5">
         <v>1</v>
       </c>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E15" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
-        <v>12</v>
-      </c>
-      <c r="B16" s="21"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="12"/>
       <c r="C16" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D16" s="5">
         <v>1</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
-        <v>13</v>
-      </c>
-      <c r="B17" s="21"/>
+        <v>14</v>
+      </c>
+      <c r="B17" s="12"/>
       <c r="C17" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="5">
-        <v>1</v>
-      </c>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
-        <v>14</v>
-      </c>
-      <c r="B18" s="21"/>
+        <v>15</v>
+      </c>
+      <c r="B18" s="12"/>
       <c r="C18" s="5" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D18" s="5">
         <v>2</v>
       </c>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E18" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
-        <v>15</v>
-      </c>
-      <c r="B19" s="21"/>
+        <v>16</v>
+      </c>
+      <c r="B19" s="12"/>
       <c r="C19" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="5">
-        <v>2</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
-        <v>16</v>
-      </c>
-      <c r="B20" s="21"/>
+        <v>17</v>
+      </c>
+      <c r="B20" s="12"/>
       <c r="C20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="5">
+        <v>18</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="5">
-        <v>1</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="5">
-        <v>17</v>
-      </c>
-      <c r="B21" s="21"/>
       <c r="C21" s="5" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D21" s="5">
-        <v>1</v>
-      </c>
-      <c r="E21" s="10"/>
-    </row>
-    <row r="22" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
-        <v>18</v>
-      </c>
-      <c r="B22" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="5">
+        <v>6</v>
+      </c>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="5">
+        <v>20</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="5">
-        <v>7</v>
-      </c>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="5">
-        <v>19</v>
-      </c>
-      <c r="B23" s="21"/>
       <c r="C23" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D23" s="5">
         <v>6</v>
       </c>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D24" s="5">
-        <v>6</v>
-      </c>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="5">
-        <v>3</v>
+        <v>28</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D26" s="5">
-        <v>100</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D27" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E27" s="9"/>
     </row>
-    <row r="28" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D28" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E28" s="9"/>
     </row>
-    <row r="29" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D29" s="5">
-        <v>6</v>
-      </c>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>53</v>
+      <c r="C30" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="D30" s="5">
-        <v>3</v>
-      </c>
-      <c r="E30" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="5">
+        <v>28</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1</v>
+      </c>
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="5">
+        <v>29</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="5">
+        <v>30</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="5">
-        <v>27</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="5">
-        <v>1</v>
-      </c>
-      <c r="E31" s="9"/>
-    </row>
-    <row r="32" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="5">
-        <v>28</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="5">
-        <v>1</v>
-      </c>
-      <c r="E32" s="9"/>
-    </row>
-    <row r="33" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="5">
-        <v>29</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="C33" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="9"/>
-    </row>
-    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+      <c r="D33" s="5">
+        <v>16</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5">
-        <v>30</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>55</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B34" s="12"/>
       <c r="C34" s="6" t="s">
         <v>56</v>
       </c>
       <c r="D34" s="5">
-        <v>16</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="5">
-        <v>31</v>
-      </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35" s="5">
         <v>2</v>
       </c>
-      <c r="E35" s="9"/>
+      <c r="E34" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B13:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B34:B35"/>
+  <mergeCells count="8">
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B33:B34"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B4:B6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C27" r:id="rId1" display="https://item.taobao.com/item.htm?id=600216770759&amp;_u=r41dfih1381" xr:uid="{DD01A867-7FC2-4355-9645-C7E966C5BA0A}"/>
+    <hyperlink ref="C26" r:id="rId1" display="https://item.taobao.com/item.htm?id=600216770759&amp;_u=r41dfih1381" xr:uid="{DD01A867-7FC2-4355-9645-C7E966C5BA0A}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{81006D0E-707D-472D-ADE8-C82DF6C9FE7F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/寒蝉-FCU（HanChan-FCU） V1.2.3配件清单.xlsx
+++ b/寒蝉-FCU（HanChan-FCU） V1.2.3配件清单.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711D9FE1-AB50-4769-9E53-15FC298BB261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F784A9-7E11-4212-ACF5-AB03280ED65F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,10 +145,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ec11  20mm梅花</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">mts-102 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -266,6 +262,18 @@
   </si>
   <si>
     <t>几十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M3 螺丝 螺母一套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定主板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ec11  20mm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -479,7 +487,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -500,19 +508,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -522,16 +526,25 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -839,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -855,24 +868,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="A1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
@@ -895,7 +908,7 @@
       <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -910,33 +923,33 @@
       <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="5">
         <v>6</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="5">
         <v>6</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -945,65 +958,65 @@
       <c r="D7" s="5">
         <v>1</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="18"/>
     </row>
     <row r="10" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="12"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="5">
         <v>1</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="18"/>
     </row>
     <row r="11" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="B11" s="12"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="5">
         <v>1</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="18"/>
     </row>
     <row r="12" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>9</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -1012,87 +1025,87 @@
       <c r="D12" s="5">
         <v>4</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="18"/>
     </row>
     <row r="13" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="B13" s="12"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="5">
         <v>3</v>
       </c>
-      <c r="E13" s="8"/>
+      <c r="E13" s="18"/>
     </row>
     <row r="14" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>11</v>
       </c>
-      <c r="B14" s="12"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="5">
         <v>1</v>
       </c>
-      <c r="E14" s="9"/>
+      <c r="E14" s="18"/>
     </row>
     <row r="15" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>12</v>
       </c>
-      <c r="B15" s="12"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="5">
         <v>1</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>51</v>
+      <c r="E15" s="18" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <v>13</v>
       </c>
-      <c r="B16" s="12"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="5">
         <v>1</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="18"/>
     </row>
     <row r="17" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>14</v>
       </c>
-      <c r="B17" s="12"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="5">
         <v>2</v>
       </c>
-      <c r="E17" s="8"/>
+      <c r="E17" s="18"/>
     </row>
     <row r="18" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
         <v>15</v>
       </c>
-      <c r="B18" s="12"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="5">
         <v>2</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="18" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1100,14 +1113,14 @@
       <c r="A19" s="5">
         <v>16</v>
       </c>
-      <c r="B19" s="12"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="5">
         <v>1</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="18" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1115,42 +1128,42 @@
       <c r="A20" s="5">
         <v>17</v>
       </c>
-      <c r="B20" s="12"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" s="5">
         <v>1</v>
       </c>
-      <c r="E20" s="10"/>
+      <c r="E20" s="19"/>
     </row>
     <row r="21" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
         <v>18</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="5">
         <v>7</v>
       </c>
-      <c r="E21" s="9"/>
+      <c r="E21" s="18"/>
     </row>
     <row r="22" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
         <v>19</v>
       </c>
-      <c r="B22" s="12"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" s="5">
         <v>6</v>
       </c>
-      <c r="E22" s="9"/>
+      <c r="E22" s="18"/>
     </row>
     <row r="23" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5">
@@ -1165,7 +1178,7 @@
       <c r="D23" s="5">
         <v>6</v>
       </c>
-      <c r="E23" s="8"/>
+      <c r="E23" s="18"/>
     </row>
     <row r="24" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
@@ -1175,13 +1188,13 @@
         <v>26</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D24" s="5">
         <v>3</v>
       </c>
-      <c r="E24" s="9" t="s">
-        <v>38</v>
+      <c r="E24" s="18" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1195,10 +1208,10 @@
         <v>28</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>47</v>
+        <v>59</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1209,58 +1222,58 @@
         <v>29</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="D26" s="5">
         <v>4</v>
       </c>
-      <c r="E26" s="9"/>
+      <c r="E26" s="18"/>
     </row>
     <row r="27" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5">
         <v>24</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D27" s="5">
         <v>1</v>
       </c>
-      <c r="E27" s="9"/>
+      <c r="E27" s="18"/>
     </row>
     <row r="28" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5">
         <v>25</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="D28" s="5">
         <v>6</v>
       </c>
-      <c r="E28" s="9"/>
+      <c r="E28" s="18"/>
     </row>
     <row r="29" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5">
         <v>26</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D29" s="5">
         <v>3</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>53</v>
+      <c r="E29" s="18" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1268,84 +1281,99 @@
         <v>27</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>42</v>
-      </c>
       <c r="D30" s="5">
         <v>1</v>
       </c>
-      <c r="E30" s="9"/>
+      <c r="E30" s="18"/>
     </row>
     <row r="31" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5">
         <v>28</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>44</v>
-      </c>
       <c r="D31" s="5">
         <v>1</v>
       </c>
-      <c r="E31" s="9"/>
+      <c r="E31" s="18"/>
     </row>
     <row r="32" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5">
         <v>29</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="D32" s="5"/>
-      <c r="E32" s="9"/>
+      <c r="E32" s="18"/>
     </row>
     <row r="33" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5">
         <v>30</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="D33" s="5">
         <v>16</v>
       </c>
-      <c r="E33" s="9" t="s">
-        <v>57</v>
+      <c r="E33" s="18" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5">
         <v>31</v>
       </c>
-      <c r="B34" s="12"/>
+      <c r="B34" s="9"/>
       <c r="C34" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D34" s="5">
         <v>2</v>
       </c>
-      <c r="E34" s="9"/>
+      <c r="E34" s="18"/>
+    </row>
+    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="17">
+        <v>32</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="5">
+        <v>2</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="B7:B11"/>
     <mergeCell ref="B12:B20"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B33:B34"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B33:B35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/寒蝉-FCU（HanChan-FCU） V1.2.3配件清单.xlsx
+++ b/寒蝉-FCU（HanChan-FCU） V1.2.3配件清单.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F784A9-7E11-4212-ACF5-AB03280ED65F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6E41FD-69C4-4AAC-8792-52AC3262195C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,10 +137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20cm 母对公</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>编码器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -201,14 +197,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>印刷贴纸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件中有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>粗估</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -274,6 +262,22 @@
   </si>
   <si>
     <t>ec11  20mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 母对公、母对母等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯光印刷贴纸或面板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主面板 贴纸或面板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开源定制</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,7 +491,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -511,6 +515,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -534,18 +547,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -852,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -868,24 +869,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="A1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
@@ -908,7 +909,7 @@
       <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -923,33 +924,33 @@
       <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="16"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="5">
         <v>6</v>
       </c>
-      <c r="E5" s="18"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="5">
         <v>6</v>
       </c>
-      <c r="E6" s="18"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -958,65 +959,65 @@
       <c r="D7" s="5">
         <v>1</v>
       </c>
-      <c r="E7" s="18"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
       </c>
-      <c r="E8" s="18"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="9"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="18"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="5">
         <v>1</v>
       </c>
-      <c r="E10" s="18"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="B11" s="9"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="5">
         <v>1</v>
       </c>
-      <c r="E11" s="18"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>9</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -1025,87 +1026,87 @@
       <c r="D12" s="5">
         <v>4</v>
       </c>
-      <c r="E12" s="18"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="B13" s="9"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D13" s="5">
         <v>3</v>
       </c>
-      <c r="E13" s="18"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>11</v>
       </c>
-      <c r="B14" s="9"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D14" s="5">
         <v>1</v>
       </c>
-      <c r="E14" s="18"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>12</v>
       </c>
-      <c r="B15" s="9"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="5">
         <v>1</v>
       </c>
-      <c r="E15" s="18" t="s">
-        <v>50</v>
+      <c r="E15" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <v>13</v>
       </c>
-      <c r="B16" s="9"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="5">
         <v>1</v>
       </c>
-      <c r="E16" s="18"/>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>14</v>
       </c>
-      <c r="B17" s="9"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="5">
         <v>2</v>
       </c>
-      <c r="E17" s="18"/>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
         <v>15</v>
       </c>
-      <c r="B18" s="9"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="5">
         <v>2</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="9" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1113,14 +1114,14 @@
       <c r="A19" s="5">
         <v>16</v>
       </c>
-      <c r="B19" s="9"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="5">
         <v>1</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="9" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1128,42 +1129,42 @@
       <c r="A20" s="5">
         <v>17</v>
       </c>
-      <c r="B20" s="9"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D20" s="5">
         <v>1</v>
       </c>
-      <c r="E20" s="19"/>
+      <c r="E20" s="10"/>
     </row>
     <row r="21" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
         <v>18</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" s="5">
         <v>7</v>
       </c>
-      <c r="E21" s="18"/>
+      <c r="E21" s="9"/>
     </row>
     <row r="22" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
         <v>19</v>
       </c>
-      <c r="B22" s="9"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="5">
         <v>6</v>
       </c>
-      <c r="E22" s="18"/>
+      <c r="E22" s="9"/>
     </row>
     <row r="23" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5">
@@ -1178,7 +1179,7 @@
       <c r="D23" s="5">
         <v>6</v>
       </c>
-      <c r="E23" s="18"/>
+      <c r="E23" s="9"/>
     </row>
     <row r="24" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
@@ -1188,13 +1189,13 @@
         <v>26</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" s="5">
         <v>3</v>
       </c>
-      <c r="E24" s="18" t="s">
-        <v>37</v>
+      <c r="E24" s="9" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1205,13 +1206,13 @@
         <v>27</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>46</v>
+        <v>56</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1219,61 +1220,61 @@
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D26" s="5">
         <v>4</v>
       </c>
-      <c r="E26" s="18"/>
+      <c r="E26" s="9"/>
     </row>
     <row r="27" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5">
         <v>24</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D27" s="5">
         <v>1</v>
       </c>
-      <c r="E27" s="18"/>
+      <c r="E27" s="9"/>
     </row>
     <row r="28" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5">
         <v>25</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="D28" s="5">
         <v>6</v>
       </c>
-      <c r="E28" s="18"/>
+      <c r="E28" s="9"/>
     </row>
     <row r="29" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5">
         <v>26</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D29" s="5">
         <v>3</v>
       </c>
-      <c r="E29" s="18" t="s">
-        <v>52</v>
+      <c r="E29" s="9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1281,91 +1282,109 @@
         <v>27</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="D30" s="5">
         <v>1</v>
       </c>
-      <c r="E30" s="18"/>
+      <c r="E30" s="9"/>
     </row>
     <row r="31" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5">
         <v>28</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>43</v>
-      </c>
       <c r="D31" s="5">
         <v>1</v>
       </c>
-      <c r="E31" s="18"/>
+      <c r="E31" s="9"/>
     </row>
     <row r="32" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5">
         <v>29</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="18"/>
+        <v>61</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="5">
+        <v>6</v>
+      </c>
+      <c r="E32" s="9"/>
     </row>
     <row r="33" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5">
         <v>30</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>53</v>
+      <c r="B33" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D33" s="5">
-        <v>16</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>56</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E33" s="9"/>
     </row>
     <row r="34" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5">
         <v>31</v>
       </c>
-      <c r="B34" s="9"/>
+      <c r="B34" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="C34" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D34" s="5">
-        <v>2</v>
-      </c>
-      <c r="E34" s="18"/>
-    </row>
-    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="17">
+        <v>16</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="5">
         <v>32</v>
       </c>
-      <c r="B35" s="9"/>
+      <c r="B35" s="12"/>
       <c r="C35" s="6" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D35" s="5">
         <v>2</v>
       </c>
-      <c r="E35" s="20" t="s">
-        <v>61</v>
+      <c r="E35" s="9"/>
+    </row>
+    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="5">
+        <v>33</v>
+      </c>
+      <c r="B36" s="12"/>
+      <c r="C36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="5">
+        <v>2</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B34:B36"/>
     <mergeCell ref="B7:B11"/>
     <mergeCell ref="B12:B20"/>
     <mergeCell ref="B21:B22"/>
@@ -1373,7 +1392,6 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B33:B35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/寒蝉-FCU（HanChan-FCU） V1.2.3配件清单.xlsx
+++ b/寒蝉-FCU（HanChan-FCU） V1.2.3配件清单.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6E41FD-69C4-4AAC-8792-52AC3262195C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DB77F3-4B56-48F7-95AE-6AB30F6FC477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,10 +29,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
   <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -279,13 +275,16 @@
   <si>
     <t>开源定制</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钮子开关座</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,24 +343,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="24"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="26"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -407,7 +388,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -431,36 +412,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -479,6 +430,43 @@
         <color indexed="64"/>
       </right>
       <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -491,7 +479,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -509,16 +497,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -527,26 +515,29 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -853,549 +844,454 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.75" customWidth="1"/>
+    <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" customWidth="1"/>
     <col min="3" max="3" width="35.5" customWidth="1"/>
-    <col min="4" max="4" width="6.625" customWidth="1"/>
-    <col min="5" max="5" width="19.875" customWidth="1"/>
+    <col min="4" max="4" width="29.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="20"/>
+    </row>
+    <row r="2" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5">
+        <v>6</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="16"/>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5">
+        <v>6</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="16"/>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5">
+        <v>6</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="12"/>
+      <c r="B8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="12"/>
+      <c r="B9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="12"/>
+      <c r="B10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="12"/>
+      <c r="B11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="12"/>
+      <c r="B12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="5">
+        <v>4</v>
+      </c>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="12"/>
+      <c r="B14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="5">
+        <v>3</v>
+      </c>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="12"/>
+      <c r="B15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="12"/>
+      <c r="B16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="12"/>
+      <c r="B17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="12"/>
+      <c r="B18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="5">
+        <v>2</v>
+      </c>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="12"/>
+      <c r="B19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="5">
+        <v>2</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="12"/>
+      <c r="B20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="12"/>
+      <c r="B21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="10"/>
+    </row>
+    <row r="22" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="5">
+        <v>7</v>
+      </c>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="12"/>
+      <c r="B23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="5">
+        <v>6</v>
+      </c>
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="5">
+        <v>6</v>
+      </c>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="5">
+        <v>3</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="5">
+        <v>4</v>
+      </c>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1</v>
+      </c>
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="5">
+        <v>6</v>
+      </c>
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="2" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B30" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="5">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D30" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="5">
+        <v>1</v>
+      </c>
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="5">
+        <v>1</v>
+      </c>
+      <c r="D32" s="9"/>
+    </row>
+    <row r="33" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="5">
+        <v>6</v>
+      </c>
+      <c r="D33" s="9"/>
+    </row>
+    <row r="34" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="5">
+        <v>1</v>
+      </c>
+      <c r="D34" s="9"/>
+    </row>
+    <row r="35" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="5">
+        <v>16</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="12"/>
+      <c r="B36" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="5">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5">
-        <v>1</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5">
-        <v>6</v>
-      </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5">
+      <c r="D36" s="9"/>
+    </row>
+    <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="12"/>
+      <c r="B37" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="5">
-        <v>6</v>
-      </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5">
-        <v>3</v>
-      </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="5">
-        <v>6</v>
-      </c>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
-        <v>4</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="5">
-        <v>5</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="5">
-        <v>6</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5">
-        <v>7</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="5">
-        <v>8</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="5">
-        <v>9</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="5">
-        <v>4</v>
-      </c>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5">
-        <v>10</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="5">
-        <v>3</v>
-      </c>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="5">
-        <v>11</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="5">
-        <v>12</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="5">
-        <v>13</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="5">
-        <v>14</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="5">
-        <v>2</v>
-      </c>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="5">
-        <v>15</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="5">
-        <v>2</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="5">
-        <v>16</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="5">
-        <v>1</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="5">
-        <v>17</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="5">
-        <v>1</v>
-      </c>
-      <c r="E20" s="10"/>
-    </row>
-    <row r="21" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="5">
-        <v>18</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="5">
-        <v>7</v>
-      </c>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="5">
-        <v>19</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="5">
-        <v>6</v>
-      </c>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="5">
-        <v>20</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="5">
-        <v>6</v>
-      </c>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="5">
-        <v>21</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="5">
-        <v>3</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="5">
-        <v>22</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="5">
-        <v>23</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="5">
-        <v>4</v>
-      </c>
-      <c r="E26" s="9"/>
-    </row>
-    <row r="27" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="5">
-        <v>24</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="5">
-        <v>1</v>
-      </c>
-      <c r="E27" s="9"/>
-    </row>
-    <row r="28" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="5">
-        <v>25</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="5">
-        <v>6</v>
-      </c>
-      <c r="E28" s="9"/>
-    </row>
-    <row r="29" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="5">
-        <v>26</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="5">
-        <v>3</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="5">
-        <v>27</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="5">
-        <v>1</v>
-      </c>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="5">
-        <v>28</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="5">
-        <v>1</v>
-      </c>
-      <c r="E31" s="9"/>
-    </row>
-    <row r="32" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="5">
-        <v>29</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="5">
-        <v>6</v>
-      </c>
-      <c r="E32" s="9"/>
-    </row>
-    <row r="33" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="5">
-        <v>30</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="5">
-        <v>1</v>
-      </c>
-      <c r="E33" s="9"/>
-    </row>
-    <row r="34" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="5">
-        <v>31</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" s="5">
-        <v>16</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="5">
-        <v>32</v>
-      </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" s="5">
-        <v>2</v>
-      </c>
-      <c r="E35" s="9"/>
-    </row>
-    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="5">
-        <v>33</v>
-      </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="6" t="s">
+      <c r="D37" s="11" t="s">
         <v>57</v>
-      </c>
-      <c r="D36" s="5">
-        <v>2</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="B12:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C2:D2"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="A4:A6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C26" r:id="rId1" display="https://item.taobao.com/item.htm?id=600216770759&amp;_u=r41dfih1381" xr:uid="{DD01A867-7FC2-4355-9645-C7E966C5BA0A}"/>
+    <hyperlink ref="B27" r:id="rId1" display="https://item.taobao.com/item.htm?id=600216770759&amp;_u=r41dfih1381" xr:uid="{DD01A867-7FC2-4355-9645-C7E966C5BA0A}"/>
     <hyperlink ref="C2" r:id="rId2" xr:uid="{81006D0E-707D-472D-ADE8-C82DF6C9FE7F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
